--- a/StructureDefinition-profile-InsurancePlan.xlsx
+++ b/StructureDefinition-profile-InsurancePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.717929-06:00</t>
+    <t>2026-02-09T22:05:43.1682541-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-profile-InsurancePlan.xlsx
+++ b/StructureDefinition-profile-InsurancePlan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2768" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2834" uniqueCount="374">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.1682541-06:00</t>
+    <t>2026-02-17T14:42:26.8314284-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -808,6 +808,39 @@
     <t>InsurancePlan.coverage.extension</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.extension:coverage</t>
+  </si>
+  <si>
+    <t>coverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-InsurancePlan.coverage|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for InsurancePlan.coverage from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `InsurancePlan.coverage` has is mapped to FHIR R4 element `InsurancePlan.coverage`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>InsurancePlan.coverage.modifierExtension</t>
   </si>
   <si>
@@ -924,6 +957,22 @@
   </si>
   <si>
     <t>InsurancePlan.plan.extension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.extension:plan</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-InsurancePlan.plan|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for InsurancePlan.plan from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `InsurancePlan.plan` has is mapped to FHIR R4 element `InsurancePlan.plan`, but has no comparisons.</t>
   </si>
   <si>
     <t>InsurancePlan.plan.modifierExtension</t>
@@ -1430,7 +1479,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL81"/>
+  <dimension ref="A1:AL83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1449,7 +1498,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="25.46484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.16015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4831,7 +4880,7 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4853,14 +4902,12 @@
         <v>130</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>131</v>
+        <v>254</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>75</v>
@@ -4897,16 +4944,14 @@
         <v>75</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>75</v>
+        <v>257</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>208</v>
@@ -4927,19 +4972,21 @@
         <v>75</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>205</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="D33" t="s" s="2">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -4952,26 +4999,24 @@
         <v>75</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>75</v>
       </c>
@@ -5019,7 +5064,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5028,7 +5073,7 @@
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>135</v>
@@ -5037,47 +5082,51 @@
         <v>75</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>75</v>
       </c>
@@ -5125,33 +5174,33 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5159,10 +5208,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5174,17 +5223,15 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>75</v>
@@ -5233,13 +5280,13 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>75</v>
@@ -5256,10 +5303,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5267,7 +5314,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>77</v>
@@ -5282,15 +5329,17 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>75</v>
@@ -5339,10 +5388,10 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
@@ -5362,10 +5411,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5373,10 +5422,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>75</v>
@@ -5388,13 +5437,13 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>202</v>
+        <v>272</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>203</v>
+        <v>273</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5445,44 +5494,44 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>204</v>
+        <v>271</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>205</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
@@ -5494,17 +5543,15 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>75</v>
@@ -5553,19 +5600,19 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>75</v>
@@ -5576,14 +5623,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>210</v>
+        <v>129</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5596,26 +5643,24 @@
         <v>75</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="O39" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>75</v>
       </c>
@@ -5663,7 +5708,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -5681,47 +5726,51 @@
         <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>127</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
       </c>
@@ -5769,33 +5818,33 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5803,7 +5852,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>84</v>
@@ -5818,13 +5867,13 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5875,10 +5924,10 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>84</v>
@@ -5898,10 +5947,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5912,7 +5961,7 @@
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>75</v>
@@ -5924,13 +5973,13 @@
         <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5981,13 +6030,13 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>75</v>
@@ -6004,10 +6053,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6018,7 +6067,7 @@
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>75</v>
@@ -6030,13 +6079,13 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6087,44 +6136,44 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>205</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
@@ -6136,17 +6185,15 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>75</v>
@@ -6195,19 +6242,19 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
@@ -6218,14 +6265,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>210</v>
+        <v>129</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6238,26 +6285,24 @@
         <v>75</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="O45" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>75</v>
       </c>
@@ -6305,7 +6350,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6323,49 +6368,51 @@
         <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>127</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>281</v>
+        <v>211</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>282</v>
+        <v>212</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>75</v>
       </c>
@@ -6413,33 +6460,33 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>279</v>
+        <v>213</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6462,16 +6509,16 @@
         <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>159</v>
+        <v>290</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6521,7 +6568,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6544,10 +6591,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6558,7 +6605,7 @@
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>75</v>
@@ -6570,15 +6617,17 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>75</v>
@@ -6627,13 +6676,13 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>75</v>
@@ -6650,10 +6699,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6664,7 +6713,7 @@
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
@@ -6676,13 +6725,13 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>202</v>
+        <v>299</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>203</v>
+        <v>300</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6733,44 +6782,44 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>204</v>
+        <v>298</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>205</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>75</v>
@@ -6782,17 +6831,15 @@
         <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>75</v>
@@ -6841,19 +6888,19 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>75</v>
@@ -6864,14 +6911,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -6884,26 +6931,22 @@
         <v>75</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>75</v>
       </c>
@@ -6939,19 +6982,17 @@
         <v>75</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="AC51" s="2"/>
       <c r="AD51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>75</v>
+        <v>257</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -6969,17 +7010,19 @@
         <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="D52" t="s" s="2">
         <v>75</v>
       </c>
@@ -6997,18 +7040,20 @@
         <v>75</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>142</v>
+        <v>305</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>143</v>
+        <v>306</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>75</v>
@@ -7057,7 +7102,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>294</v>
+        <v>208</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7066,56 +7111,60 @@
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>147</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>297</v>
+        <v>211</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>75</v>
       </c>
@@ -7163,33 +7212,33 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>296</v>
+        <v>213</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7212,13 +7261,13 @@
         <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7269,7 +7318,7 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -7284,18 +7333,18 @@
         <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7306,7 +7355,7 @@
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>75</v>
@@ -7318,17 +7367,15 @@
         <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>75</v>
@@ -7377,13 +7424,13 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>75</v>
@@ -7400,10 +7447,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7423,16 +7470,16 @@
         <v>75</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>303</v>
+        <v>192</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7483,7 +7530,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -7506,10 +7553,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7520,7 +7567,7 @@
         <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>75</v>
@@ -7532,15 +7579,17 @@
         <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>202</v>
+        <v>269</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>75</v>
@@ -7589,37 +7638,37 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>204</v>
+        <v>316</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>205</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7638,17 +7687,15 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>131</v>
+        <v>318</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>75</v>
@@ -7697,7 +7744,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>208</v>
+        <v>317</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -7709,57 +7756,53 @@
         <v>75</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>205</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>75</v>
       </c>
@@ -7807,44 +7850,44 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>127</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>75</v>
@@ -7856,15 +7899,17 @@
         <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>309</v>
+        <v>131</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>75</v>
@@ -7913,65 +7958,69 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>312</v>
+        <v>130</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>313</v>
+        <v>211</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>75</v>
       </c>
@@ -8019,33 +8068,33 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>311</v>
+        <v>213</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8068,13 +8117,13 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>316</v>
+        <v>159</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8125,7 +8174,7 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8148,10 +8197,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8174,13 +8223,13 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>168</v>
+        <v>327</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8231,7 +8280,7 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8254,10 +8303,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8268,7 +8317,7 @@
         <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>75</v>
@@ -8280,13 +8329,13 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>195</v>
+        <v>331</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8337,13 +8386,13 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>75</v>
@@ -8360,10 +8409,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8389,10 +8438,10 @@
         <v>168</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>202</v>
+        <v>335</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>203</v>
+        <v>336</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8443,7 +8492,7 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>204</v>
+        <v>334</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -8455,25 +8504,25 @@
         <v>75</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>205</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -8492,17 +8541,15 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>131</v>
+        <v>338</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>75</v>
@@ -8551,7 +8598,7 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>208</v>
+        <v>337</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -8563,57 +8610,53 @@
         <v>75</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>205</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>75</v>
       </c>
@@ -8661,44 +8704,44 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>127</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>75</v>
@@ -8710,15 +8753,17 @@
         <v>75</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>329</v>
+        <v>131</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>75</v>
@@ -8767,37 +8812,37 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>328</v>
+        <v>208</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -8810,22 +8855,26 @@
         <v>75</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>332</v>
+        <v>211</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>75</v>
       </c>
@@ -8873,7 +8922,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>331</v>
+        <v>213</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -8885,21 +8934,21 @@
         <v>75</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8907,7 +8956,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>84</v>
@@ -8922,13 +8971,13 @@
         <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>202</v>
+        <v>344</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>203</v>
+        <v>345</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -8979,10 +9028,10 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>204</v>
+        <v>343</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>84</v>
@@ -8991,25 +9040,25 @@
         <v>75</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>205</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9028,17 +9077,15 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>131</v>
+        <v>347</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>75</v>
@@ -9087,7 +9134,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>208</v>
+        <v>346</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9099,57 +9146,53 @@
         <v>75</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>205</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>75</v>
       </c>
@@ -9197,44 +9240,44 @@
         <v>75</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>127</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>75</v>
@@ -9246,15 +9289,17 @@
         <v>75</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>338</v>
+        <v>131</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>75</v>
@@ -9303,37 +9348,37 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>337</v>
+        <v>208</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -9346,22 +9391,26 @@
         <v>75</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>341</v>
+        <v>211</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>75</v>
       </c>
@@ -9409,7 +9458,7 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>340</v>
+        <v>213</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -9421,21 +9470,21 @@
         <v>75</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9443,7 +9492,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>84</v>
@@ -9458,13 +9507,13 @@
         <v>75</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>202</v>
+        <v>353</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>203</v>
+        <v>354</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9515,10 +9564,10 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>204</v>
+        <v>352</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>84</v>
@@ -9527,25 +9576,25 @@
         <v>75</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>205</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -9564,17 +9613,15 @@
         <v>75</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>131</v>
+        <v>356</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>75</v>
@@ -9623,7 +9670,7 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>208</v>
+        <v>355</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -9635,57 +9682,53 @@
         <v>75</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>205</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>75</v>
       </c>
@@ -9733,44 +9776,44 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>127</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>75</v>
@@ -9782,15 +9825,17 @@
         <v>75</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>309</v>
+        <v>131</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>75</v>
@@ -9839,65 +9884,69 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>346</v>
+        <v>208</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>349</v>
+        <v>211</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>75</v>
       </c>
@@ -9921,13 +9970,13 @@
         <v>75</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>351</v>
+        <v>75</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>352</v>
+        <v>75</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>75</v>
@@ -9945,33 +9994,33 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>348</v>
+        <v>213</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9979,10 +10028,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>75</v>
@@ -9997,10 +10046,10 @@
         <v>159</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10051,13 +10100,13 @@
         <v>75</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>75</v>
@@ -10074,10 +10123,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10100,13 +10149,13 @@
         <v>75</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>280</v>
+        <v>159</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10133,13 +10182,13 @@
         <v>75</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>75</v>
+        <v>366</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>75</v>
+        <v>367</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>75</v>
@@ -10157,7 +10206,7 @@
         <v>75</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -10175,6 +10224,218 @@
         <v>75</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-profile-InsurancePlan.xlsx
+++ b/StructureDefinition-profile-InsurancePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8314284-06:00</t>
+    <t>2026-02-20T11:59:20.8546237-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/InsurancePlan|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/InsurancePlan</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -827,7 +827,7 @@
     <t>coverage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-InsurancePlan.coverage|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-InsurancePlan.coverage}
 </t>
   </si>
   <si>
@@ -965,7 +965,7 @@
     <t>plan</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-InsurancePlan.plan|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-InsurancePlan.plan}
 </t>
   </si>
   <si>
@@ -1498,7 +1498,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.16015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.75" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-InsurancePlan.xlsx
+++ b/StructureDefinition-profile-InsurancePlan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2834" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2768" uniqueCount="359">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8546237-06:00</t>
+    <t>2026-02-21T13:36:54.2569674-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/InsurancePlan</t>
+    <t>http://hl7.org/fhir/StructureDefinition/InsurancePlan|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -808,39 +808,6 @@
     <t>InsurancePlan.coverage.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.extension:coverage</t>
-  </si>
-  <si>
-    <t>coverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-InsurancePlan.coverage}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for InsurancePlan.coverage from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `InsurancePlan.coverage` has is mapped to FHIR R4 element `InsurancePlan.coverage`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>InsurancePlan.coverage.modifierExtension</t>
   </si>
   <si>
@@ -957,22 +924,6 @@
   </si>
   <si>
     <t>InsurancePlan.plan.extension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.extension:plan</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-InsurancePlan.plan}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for InsurancePlan.plan from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `InsurancePlan.plan` has is mapped to FHIR R4 element `InsurancePlan.plan`, but has no comparisons.</t>
   </si>
   <si>
     <t>InsurancePlan.plan.modifierExtension</t>
@@ -1479,7 +1430,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL83"/>
+  <dimension ref="A1:AL81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1498,7 +1449,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.75" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="25.46484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4880,7 +4831,7 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4902,12 +4853,14 @@
         <v>130</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>254</v>
+        <v>131</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>75</v>
@@ -4944,14 +4897,16 @@
         <v>75</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AC32" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>257</v>
+        <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>208</v>
@@ -4972,21 +4927,19 @@
         <v>75</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -4999,24 +4952,26 @@
         <v>75</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>75</v>
       </c>
@@ -5064,7 +5019,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5073,7 +5028,7 @@
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>135</v>
@@ -5082,51 +5037,47 @@
         <v>75</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
       </c>
@@ -5174,33 +5125,33 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5208,10 +5159,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5223,15 +5174,17 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>75</v>
@@ -5280,13 +5233,13 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>75</v>
@@ -5303,10 +5256,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5314,7 +5267,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>77</v>
@@ -5329,17 +5282,15 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>75</v>
@@ -5388,10 +5339,10 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
@@ -5411,10 +5362,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5422,11 +5373,11 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G37" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H37" t="s" s="2">
         <v>75</v>
       </c>
@@ -5437,13 +5388,13 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>272</v>
+        <v>202</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>273</v>
+        <v>203</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5494,44 +5445,44 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>271</v>
+        <v>204</v>
       </c>
       <c r="AG37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH37" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AH37" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
@@ -5543,15 +5494,17 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>75</v>
@@ -5600,19 +5553,19 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>75</v>
@@ -5623,14 +5576,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5643,24 +5596,26 @@
         <v>75</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="O39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>75</v>
       </c>
@@ -5708,7 +5663,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -5726,51 +5681,47 @@
         <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>205</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>75</v>
       </c>
@@ -5818,33 +5769,33 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5852,7 +5803,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>84</v>
@@ -5867,13 +5818,13 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5924,10 +5875,10 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>84</v>
@@ -5947,10 +5898,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5961,7 +5912,7 @@
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>75</v>
@@ -5973,13 +5924,13 @@
         <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6030,13 +5981,13 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>75</v>
@@ -6053,10 +6004,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6067,7 +6018,7 @@
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>75</v>
@@ -6079,13 +6030,13 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>284</v>
+        <v>202</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>285</v>
+        <v>203</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6136,44 +6087,44 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>283</v>
+        <v>204</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
@@ -6185,15 +6136,17 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>75</v>
@@ -6242,19 +6195,19 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
@@ -6265,14 +6218,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6285,24 +6238,26 @@
         <v>75</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="O45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>75</v>
       </c>
@@ -6350,7 +6305,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6368,51 +6323,49 @@
         <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>205</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>211</v>
+        <v>281</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>212</v>
+        <v>282</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>75</v>
       </c>
@@ -6460,33 +6413,33 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6509,16 +6462,16 @@
         <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>290</v>
+        <v>159</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6568,7 +6521,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6591,10 +6544,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6605,7 +6558,7 @@
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>75</v>
@@ -6617,17 +6570,15 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>75</v>
@@ -6676,13 +6627,13 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>75</v>
@@ -6699,10 +6650,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6713,7 +6664,7 @@
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
@@ -6725,13 +6676,13 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>299</v>
+        <v>202</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>300</v>
+        <v>203</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6782,44 +6733,44 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>298</v>
+        <v>204</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>75</v>
@@ -6831,15 +6782,17 @@
         <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>75</v>
@@ -6888,19 +6841,19 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>75</v>
@@ -6911,14 +6864,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -6931,22 +6884,26 @@
         <v>75</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>75</v>
       </c>
@@ -6982,17 +6939,19 @@
         <v>75</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AC51" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>257</v>
+        <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7010,19 +6969,17 @@
         <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
         <v>75</v>
       </c>
@@ -7040,20 +6997,18 @@
         <v>75</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>305</v>
+        <v>142</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>306</v>
+        <v>143</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>75</v>
@@ -7102,7 +7057,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>208</v>
+        <v>294</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7111,60 +7066,56 @@
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>211</v>
+        <v>297</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>75</v>
       </c>
@@ -7212,33 +7163,33 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>213</v>
+        <v>296</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7261,13 +7212,13 @@
         <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7318,7 +7269,7 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -7333,18 +7284,18 @@
         <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>147</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7355,7 +7306,7 @@
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>75</v>
@@ -7367,15 +7318,17 @@
         <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>75</v>
@@ -7424,13 +7377,13 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>75</v>
@@ -7447,10 +7400,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7470,16 +7423,16 @@
         <v>75</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>192</v>
+        <v>303</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7530,7 +7483,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -7553,10 +7506,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7567,7 +7520,7 @@
         <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>75</v>
@@ -7579,17 +7532,15 @@
         <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>269</v>
+        <v>202</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>75</v>
@@ -7638,37 +7589,37 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>316</v>
+        <v>204</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7687,15 +7638,17 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>318</v>
+        <v>131</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>75</v>
@@ -7744,7 +7697,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>317</v>
+        <v>208</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -7756,53 +7709,57 @@
         <v>75</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>75</v>
       </c>
@@ -7850,44 +7807,44 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>205</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>75</v>
@@ -7899,17 +7856,15 @@
         <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>131</v>
+        <v>309</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>75</v>
@@ -7958,69 +7913,65 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>208</v>
+        <v>308</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>205</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>130</v>
+        <v>312</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>211</v>
+        <v>313</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>75</v>
       </c>
@@ -8068,33 +8019,33 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8117,13 +8068,13 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>159</v>
+        <v>316</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8174,7 +8125,7 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8197,10 +8148,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8223,13 +8174,13 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>327</v>
+        <v>168</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8280,7 +8231,7 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8303,10 +8254,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8317,7 +8268,7 @@
         <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>75</v>
@@ -8329,13 +8280,13 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>331</v>
+        <v>195</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8386,13 +8337,13 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>75</v>
@@ -8409,10 +8360,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8438,10 +8389,10 @@
         <v>168</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>335</v>
+        <v>202</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>336</v>
+        <v>203</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8492,7 +8443,7 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>334</v>
+        <v>204</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -8504,25 +8455,25 @@
         <v>75</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -8541,15 +8492,17 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>338</v>
+        <v>131</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>75</v>
@@ -8598,7 +8551,7 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>337</v>
+        <v>208</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -8610,53 +8563,57 @@
         <v>75</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>75</v>
       </c>
@@ -8704,44 +8661,44 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>205</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>75</v>
@@ -8753,17 +8710,15 @@
         <v>75</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>131</v>
+        <v>329</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>75</v>
@@ -8812,37 +8767,37 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>208</v>
+        <v>328</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>205</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -8855,26 +8810,22 @@
         <v>75</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>211</v>
+        <v>332</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>75</v>
       </c>
@@ -8922,7 +8873,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>213</v>
+        <v>331</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -8934,21 +8885,21 @@
         <v>75</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8956,7 +8907,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>84</v>
@@ -8971,13 +8922,13 @@
         <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>344</v>
+        <v>202</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>345</v>
+        <v>203</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9028,10 +8979,10 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>343</v>
+        <v>204</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>84</v>
@@ -9040,25 +8991,25 @@
         <v>75</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9077,15 +9028,17 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>347</v>
+        <v>131</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>75</v>
@@ -9134,7 +9087,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>346</v>
+        <v>208</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9146,53 +9099,57 @@
         <v>75</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>75</v>
       </c>
@@ -9240,44 +9197,44 @@
         <v>75</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>205</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>75</v>
@@ -9289,17 +9246,15 @@
         <v>75</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>131</v>
+        <v>338</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>75</v>
@@ -9348,37 +9303,37 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>208</v>
+        <v>337</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>205</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -9391,26 +9346,22 @@
         <v>75</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>211</v>
+        <v>341</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>75</v>
       </c>
@@ -9458,7 +9409,7 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>213</v>
+        <v>340</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -9470,21 +9421,21 @@
         <v>75</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9492,7 +9443,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>84</v>
@@ -9507,13 +9458,13 @@
         <v>75</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>353</v>
+        <v>202</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>354</v>
+        <v>203</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9564,10 +9515,10 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>352</v>
+        <v>204</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>84</v>
@@ -9576,25 +9527,25 @@
         <v>75</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -9613,15 +9564,17 @@
         <v>75</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>356</v>
+        <v>131</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>75</v>
@@ -9670,7 +9623,7 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>355</v>
+        <v>208</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -9682,53 +9635,57 @@
         <v>75</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>75</v>
       </c>
@@ -9776,44 +9733,44 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>205</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>75</v>
@@ -9825,17 +9782,15 @@
         <v>75</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>131</v>
+        <v>309</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>75</v>
@@ -9884,69 +9839,65 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>208</v>
+        <v>346</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>205</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>211</v>
+        <v>349</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>75</v>
       </c>
@@ -9970,13 +9921,13 @@
         <v>75</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>75</v>
+        <v>351</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>75</v>
@@ -9994,33 +9945,33 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>213</v>
+        <v>348</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10028,10 +9979,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>75</v>
@@ -10046,10 +9997,10 @@
         <v>159</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10100,13 +10051,13 @@
         <v>75</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>75</v>
@@ -10123,10 +10074,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10149,13 +10100,13 @@
         <v>75</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10182,13 +10133,13 @@
         <v>75</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>366</v>
+        <v>75</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>367</v>
+        <v>75</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>75</v>
@@ -10206,7 +10157,7 @@
         <v>75</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -10224,218 +10175,6 @@
         <v>75</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL83" t="s" s="2">
         <v>75</v>
       </c>
     </row>
